--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_26_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145938.0760026191</v>
+        <v>25220282.14822118</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145938.0760026191</v>
+        <v>25220282.14822118</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1838.880546880717</v>
+        <v>126468.6178297562</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1838.880546880717</v>
+        <v>126468.6178297562</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958177393.4951184</v>
+        <v>38435540.02703848</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6974.08183036745</v>
+        <v>789306.5310637393</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13923.20947986459</v>
+        <v>1573647.180134287</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20872.33712936173</v>
+        <v>2357987.829204834</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27957.14875488572</v>
+        <v>3144805.780219766</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35035.08543533777</v>
+        <v>3930255.617165374</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42113.0221157898</v>
+        <v>4715705.454110982</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49190.95879624182</v>
+        <v>5501155.291056588</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56268.89547669386</v>
+        <v>6286605.128002194</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>63423.68573957052</v>
+        <v>7072812.13414974</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70503.89200853564</v>
+        <v>7853938.962040595</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77613.95493457273</v>
+        <v>8641007.264688777</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84592.94201358523</v>
+        <v>9425968.61727933</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>91576.38861259772</v>
+        <v>10211817.41434988</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98616.11840913117</v>
+        <v>11001960.15915519</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>105685.5060850435</v>
+        <v>11781273.11472317</v>
       </c>
     </row>
   </sheetData>
